--- a/BQ Optimization.xlsx
+++ b/BQ Optimization.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdutta\Desktop\GCP-01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\apachebeam\BQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C686E289-86E5-417A-87CF-CA5EAFBF99F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9070A4F-DC49-4838-9C70-6D114CFB34AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="600" windowWidth="18912" windowHeight="12360" xr2:uid="{28467C98-3B77-44D3-9345-0FA548017CD2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{28467C98-3B77-44D3-9345-0FA548017CD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Big Query Optimiation</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>https://medium.com/google-cloud/airflow-for-google-cloud-part-1-d7da9a048aa4</t>
+  </si>
+  <si>
+    <t>To cut cost:</t>
+  </si>
+  <si>
+    <t>Enable - Cache checkbox</t>
+  </si>
+  <si>
+    <t>To debug:</t>
+  </si>
+  <si>
+    <t>Disbale - Cache and then troubleshoot the data issue.</t>
   </si>
 </sst>
 </file>
@@ -556,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2448AD12-3F6B-4350-98CF-EAF48BA88D00}">
-  <dimension ref="A2:A61"/>
+  <dimension ref="A2:A68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,6 +812,26 @@
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -818,5 +850,6 @@
     <hyperlink ref="A61" r:id="rId12" xr:uid="{FD06619E-6A10-4A88-98B0-899B450E6985}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>